--- a/templates/LEED v5 BD+C Requirements.xlsx
+++ b/templates/LEED v5 BD+C Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carvalho\PycharmProjects\BPVis_LEED Precheck\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04079343-D8EF-4242-8167-21ADF03FE1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A337C95-A221-46BA-9248-C797164B6CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25905" yWindow="-2775" windowWidth="26010" windowHeight="20985" xr2:uid="{ADD07C17-A122-47CD-9498-1392969010EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="739">
   <si>
     <t>Category</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Construction and Demolition Waste Diversion</t>
   </si>
   <si>
-    <t>Storage and Collection of Recyclables</t>
-  </si>
-  <si>
     <t>Quantify and Assess Embodied Carbon</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>Occupant Experience</t>
   </si>
   <si>
-    <t>Enhanced Acoustic Performance</t>
-  </si>
-  <si>
     <t>Resilient Spaces</t>
   </si>
   <si>
@@ -410,9 +404,6 @@
     <t>Fundamental Air Quality</t>
   </si>
   <si>
-    <t>Minimum Acoustic Performance</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -555,45 +546,6 @@
   </si>
   <si>
     <t>Thresholds</t>
-  </si>
-  <si>
-    <t>test_54</t>
-  </si>
-  <si>
-    <t>test_55</t>
-  </si>
-  <si>
-    <t>test_56</t>
-  </si>
-  <si>
-    <t>test_57</t>
-  </si>
-  <si>
-    <t>test_58</t>
-  </si>
-  <si>
-    <t>test_59</t>
-  </si>
-  <si>
-    <t>test_60</t>
-  </si>
-  <si>
-    <t>test_61</t>
-  </si>
-  <si>
-    <t>test_62</t>
-  </si>
-  <si>
-    <t>test_63</t>
-  </si>
-  <si>
-    <t>test_64</t>
-  </si>
-  <si>
-    <t>test_65</t>
-  </si>
-  <si>
-    <t>test_66</t>
   </si>
   <si>
     <t>project_name</t>
@@ -687,13 +639,6 @@
   </si>
   <si>
     <t>• The project’s human impact assessment (using the USGBC Human Impact Assessment Template or equivalent)</t>
-  </si>
-  <si>
-    <t>Completed documentation of:
-• EAp1: Operational Carbon Projection and Decarbonization Plan, &lt;br&gt;
-• EAp5: Fundamental Refrigerant Management, &lt;br&gt;
-• MRp2: Quantify and Assess Embodied Carbon, and if attempted &lt;br&gt; 
-• LTc4: Transportation Demand Management. &lt;br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> • Evidence of the design charette date, the participants and their roles, and the name and company of the facilitator (e.g., the meeting notes for the design charettes). &lt;br&gt;
@@ -1503,15 +1448,6 @@
   </si>
   <si>
     <t>Effort</t>
-  </si>
-  <si>
-    <t>Install or use existing permanent water meters to monitor, record, and report the total water consumption for potable and alternative water sources for the building and associated grounds. &lt;br&gt;
-Report whole-project use for each type of water source supplied to the building and associated grounds, with the following additional provisions: &lt;br&gt;&lt;br&gt; 
-• The facility manager and/or tenant(s) must be able to access the meter data. &lt;br&gt;&lt;
-• Meter alternative water sources separately from municipally supplied potable water. &lt;br&gt;
-• Commit to sharing with USGBC the resulting whole-project water usage data at least &lt;br&gt;&lt;br&gt; 
-annually. This commitment must carry forward for 5 years or until the building changes ownership or lessee. &lt;br&gt;&lt;br&gt; 
-The requirements may be applied to the project scope of work and exclude future tenant utility services and submeters that will be installed in the tenant scope of work.</t>
   </si>
   <si>
     <t xml:space="preserve">• Documentation showing that all water meters are permanently installed.  &lt;br&gt;
@@ -3543,6 +3479,873 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Completed documentation of:&lt;br&gt;
+• EAp1: Operational Carbon Projection and Decarbonization Plan, &lt;br&gt;
+• EAp5: Fundamental Refrigerant Management, &lt;br&gt;
+• MRp2: Quantify and Assess Embodied Carbon, and if attempted &lt;br&gt; 
+• LTc4: Transportation Demand Management. &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Install or use existing permanent water meters to monitor, record, and report the total water consumption for potable and alternative water sources for the building and associated grounds. &lt;br&gt;
+Report whole-project use for each type of water source supplied to the building and associated grounds, with the following additional provisions: &lt;br&gt;&lt;br&gt; 
+• The facility manager and/or tenant(s) must be able to access the meter data. &lt;br&gt;
+• Meter alternative water sources separately from municipally supplied potable water. &lt;br&gt;
+• Commit to sharing with USGBC the resulting whole-project water usage data at least annually. This commitment must carry forward for 5 years or until the building changes ownership or lessee. &lt;br&gt;&lt;br&gt; 
+The requirements may be applied to the project scope of work and exclude future tenant utility services and submeters that will be installed in the tenant scope of work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To reduce concentrations of chemical contaminants that can damage air quality and the environment. To protect human health and the comfort of installers and building occupants. </t>
+  </si>
+  <si>
+    <t>Specify and install permanently installed products, paints, coatings, adhesives, sealants, 
+flooring, walls, ceilings, insulation, furniture, and/or composite wood products that meet the low-emitting criteria. Points are awarded according to Table 1or 2.</t>
+  </si>
+  <si>
+    <t>Table 1. Thresholds for low-emitting materials for New Construction projects&lt;br&gt;&lt;br&gt;
+• Path 1: Achieve all three categories (Paints and coatings/Flooring/Ceilings), Threshold: &gt;90% of all products in each product category. (1 Points)&lt;br&gt;
+• Path 2: Achieve Path 1, plus any two of these additional categories(Adhesives and sealants/Walls/Insulation/Composite wood), Threshold: &gt;80% of each additional product category (2 Points) &lt;br&gt;
+• Path 3: Achieve Path 1 plus the furniture category, Threshold: &gt;80% of the furniture product category (2 Points)&lt;br&gt;&lt;br&gt;
+Table 2. Thresholds for low-emitting materials for Core and Shell projects &lt;br&gt;&lt;br&gt;
+• Achieve any three categories (Paints and coatings/Flooring/Ceilings/Adhesives and sealants/Walls/Insulation/Composite wood), Threshold:&gt;90% of all products in each product category (1 Points)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Provide documentation for every product in the calculator that meets Low Emitting Materials criteria.&lt;br&gt;
+• Complete the USGBC material calculator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• CDPH Standard Method v1.2 (cdph.ca.gov/programs/ccdphp/deodc/ehlb/iaq/cdph%20document%20library/cdph-iaq_standardmethod_v1_2_2017_ada.pdf)&lt;br&gt;
+• ANSI/BIFMA Standard M7.1, etc. (bifma.org)&lt;br&gt;
+• SCAQMD Rule 1113 (aqmd.gov/home)&lt;br&gt;
+• SCAQMD Rule 1168 (aqmd.gov/home)&lt;br&gt;
+• CARB ATCM 93120 (arb.ca.gov)&lt;br&gt;
+• EPA TSCA Title VI (epa.gov/formaldehyde/formaldehyde-emission-standards-composite-wood-products)&lt;br&gt;
+• ASTM D5456, 5055 (astm.org) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To encourage the use of products and materials that have sustainability information available and that have environmentally, economically, and socially preferable impacts in alignment with industry momentum. To reward project teams for selecting products from manufacturers who have disclosed sustainability information about their products and optimized their products across multiple criteria areas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Select nonstructural building products that demonstrate achievement in one or more of five 
+criteria areas:(Climate health/Human health/Ecosystem health/Social health and equity/ Circular economy) &lt;br&gt;
+• Products that achieve two or more criteria areas are considered multi-attribute. Products that 
+achieve higher levels of use and/or that are across additional criteria areas will be given a 
+higher value in credit calculations. &lt;br&gt; 
+• Achievement is demonstrated through eligible compliant manufacturer product documentation, which includes third-party product certifications, ecolabels, declarations, and standards. A single product document can demonstrate multiple benefits and/or achievement levels, or the product can earn multi-attribute criteria through a combination of separate eligible product documents.&lt;br&gt; &lt;br&gt; 
+There are three achievement levels for products:&lt;br&gt; 
+• Level 1: A product in this level achieves a first step toward sustainability for a criteria area. Widespread achievement of these practices drive market transformation toward sustainability outcomes within the criteria area. Products scored at this level earn a 1x multiplier.&lt;br&gt; 
+• Level 2: This level represents a leadership position in the marketplace for a given sustainability attribute. Products at this level are optimized and demonstrate a level of sustainability that peers aspire to achieve. Products scored at this level earn a 2x multiplier.&lt;br&gt;
+• Level 3: Products that earn this level are elite and represent the forefront of sustainability. Products scored at this level earn a 3x multiplier.&lt;br&gt;&lt;br&gt;
+• This credit rewards the selection of eligible interior and enclosure materials from the following 
+product categories (Paints and coatings/Adhesives and sealants/ Flooring/Walls/Ceilings/Insulation/Furniture/Composite wood/Plumbing fixtures)&lt;br&gt;&lt;br&gt;
+• Eligible products meet the achievement levels and are scored as 1, 2, or 3. These scores are 
+added across criteria areas to add up to a maximum score of 5 per product. This cumulative 
+score is called the product “multi-attribute score.” &lt;br&gt;
+• Each individual product’s value (cost, area, volume, or unit) is adjusted based on its multi-
+attribute score: Product value × Multi-attribute score = Adjusted product value for LEED&lt;br&gt;
+• To determine total compliant product value per category, follow Equation 1:Calculate the multi-attribute adjusted value of a product category </t>
+  </si>
+  <si>
+    <t>Any product category adjusted value for LEED that exceeds 100% earns 1 point. Points are awarded for achievement of whole product categories, up to a maximum of 5 points according to Table 1. &lt;br&gt;&lt;br&gt; 
+Table 1. Points for multi-attribute achievement of product categories:&lt;br&gt;&lt;br&gt;
+• 1 product category (1Point)&lt;br&gt;
+• 2 product category (2Points)&lt;br&gt;
+• 3 product category (3Points)&lt;br&gt;
+• 4 product category (4Points)&lt;br&gt;
+• 5 product category (5Points)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• USGBC material calculator.&lt;br&gt; 
+• Provide documentation for every product in the calculator 
+that meets BPSP criteria.&lt;br&gt;
+• Confirmation that all products were installed, and that all 
+relevant products in the category were included in calculations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• AIA A&amp;D Materials Pledge (aia.org/design-excellence/climate-action/zero-carbon/materials-pledge)&lt;br&gt;
+• Mindful Materials CMF (mindfulmaterials.com) </t>
+  </si>
+  <si>
+    <t>To reduce construction and demolition waste disposed of in landfills and incineration facilities and pollution to the environment. To reduce the environmental impacts and embodied carbon of manufacturing new materials and products. To delay the need for new landfill facilities that are often located in frontline communities. To create green jobs and materials markets for building construction services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction and Demolition Materials Management Plan&lt;br&gt;
+Develop and implement a construction and demolition (C&amp;D) materials management plan and 
+achieve points through diversion and recycling.&lt;br&gt;&lt;br&gt;
+AND&lt;br&gt;&lt;br&gt;
+Diversion&lt;br&gt;
+• Follow the materials management plan and provide a final waste management report detailing all waste generated, including disposal and diversion rates for the project. Calculations can be by weight or volume but must be consistent throughout. Points are awarded according to Table 1.&lt;br&gt;
+• Divert C&amp;D waste materials by employing strategies including off-site salvage, source-separation for single-material recycling, mixed C&amp;D recycling, and industry/manufacturer take- back programs.&lt;br&gt;
+• Source-separated materials are considered 100% diverted for credit calculation purposes. These include: &lt;br&gt; 
+o Recovered materials sent to a single-material recycler.&lt;br&gt; 
+o Recovered materials sent for off-site salvage/reuse. &lt;br&gt;
+o Materials sent to a qualifying manufacturer or industry take-back program.&lt;br&gt; 
+o Salvaged materials, which are valued at twice the diversion rate (200%) of other diverted materials for credit calculation purposes. Salvaged materials include recovered materials sent off-site for reuse.&lt;br&gt; 
+NOTE: Materials reused on-site contribute to MRc1: Building and Materials Reuse.&lt;br&gt;  
+• Mixed C&amp;D materials sent to a processing facility for recovery must take the facility average recycling rate. Recycling rates not verified by a third party must assume a maximum of 35% diversion rate. &lt;br&gt;
+• Materials destined for alternative daily cover or incineration/energy recovery are considered waste (0% diverted). &lt;br&gt;
+• Exclude hazardous waste from calculations. Exclude on-site reuse from credit calculations (include in MRc1: Building and Materials Reuse).&lt;br&gt;
+• Exclude excavated soil and land-clearing debris from calculations.  
+</t>
+  </si>
+  <si>
+    <t>• Divert at least 50% of the total construction and demolition material &lt;br&gt;
+At least 10% of diverted materials must be salvaged or source-separated and sent to 
+single-material recycler(s) (1Point)&lt;br&gt;&lt;br&gt;
+• Divert at least 75% of the total construction and demolition material&lt;br&gt;
+At least 25% of the total diverted materials must be salvaged or source-separated and sent 
+to single-material recycler(s)(2Points)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction and Demolition Materials Management Plan &lt;br&gt;
+• Provide the Construction and Demolition Materials Management Plan.&lt;br&gt;
+• Provide the C&amp;D Waste Diversion calculator.&lt;br&gt;&lt;br&gt;
+AND&lt;br&gt;&lt;br&gt;
+Diversion&lt;br&gt;
+• Summary of waste tickets and confirmation that the numbers 
+reported correspond to all the tickets for the project.&lt;br&gt;
+• Confirmation that ADC is excluded from diverted waste 
+calculations (but is included in total construction and demolition 
+waste generated calculations).&lt;br&gt;
+• Upload documentation with the facility average diversion rate of any mixed C&amp;D materials sent to a processing facility. For those projects sending mixed C&amp;D materials to a processing facility that has third party verified recycling rates, include proof of the third-party recycling rate and facility certification through an approved program. </t>
+  </si>
+  <si>
+    <t>• EPA volume to weight conversion factors&lt;br&gt; (epa.gov/smm/volume-weight-conversion-factors-solid-waste) 
+• RCI (recyclingcertification.org)&lt;br&gt;
+• TRUE diversion criteria (true.gbci.org/true-diversion-data-additional-guidance)</t>
+  </si>
+  <si>
+    <t>To promote the well-being of construction workers and building occupants by minimizing environmental quality problems associated with construction and renovation</t>
+  </si>
+  <si>
+    <t>Develop and implement construction management practices for the construction and preoccupancy phases of the building. The practices must address all of the following: &lt;br&gt;&lt;br&gt;
+• No smoking: Prohibit smoking during construction except in designated smoking areas located at least 25 feet (7.5 meters) from the building. Install signage that prohibits 
+smoking during construction.&lt;br&gt;
+• Extreme heat protection: Implement measures that protect construction workers from 
+extreme heat.&lt;br&gt;  
+• HVAC protection: Keep contaminants out of the HVAC system. Do not run permanently 
+installed equipment if possible or maintain proper filtration if it is used. Replace all air filtration media after completion of construction and before occupancy. Confirm that testing and balance work is completed with new filtration.&lt;br&gt;
+• Source control: Keep sources of contaminants out of the building and have a plan to 
+eliminate any that are introduced.&lt;br&gt;
+o Store carpets, acoustical ceiling panels, fabric wall coverings, insulation, upholstery and furnishings, and other absorptive materials in a designated area protected from moisture damage.&lt;br&gt;
+• Pathway interruption: Prevent circulation of contaminated air and when cutting concrete or wood, sanding drywall, installing volatile-organic-compound-emitting materials, or performing other activities that affect indoor air quality in other workspaces.&lt;br&gt;
+o Isolate areas of work to prevent contamination of other spaces, whether they are finished or not. Seal doorways and windows, or tent off areas as needed using temporary barriers.&lt;br&gt;
+o Use walk-off mats at entryways to reduce introduced dirt and pollutants.&lt;br&gt;
+o Use dust guards and collectors on saws and other tools.&lt;br&gt;
+• Housekeeping: Maintain a clean jobsite. Use vacuum cleaners with high-efficiency particulate filters and use sweeping compounds or wetting agents for dust control when sweeping.&lt;br&gt; 
+• Scheduling: Sequence construction activities to reduce air quality problems. For renovation projects, coordinate construction activities to minimize or eliminate disruption of operations in occupied areas.</t>
+  </si>
+  <si>
+    <t>• LEED v5 Construction Management Implementation 
+Checklist &lt;br&gt;  
+• LEED v5 Construction Management Implementation Checklist Affirmation at completion of construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Sheet Metal and Air-Conditioning National Contractors Association (SMACNA) IAQ Guidelines for Occupied Buildings under Construction, 2nd edition, 2007, ANSI/SMACNA 008–2008 (Chapter 3) (store.smacna.org/iaq-guidelines-for-occupied-buildings-under-construction) </t>
+  </si>
+  <si>
+    <t>To design for above-average indoor air quality to support occupant health and well-being.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Results of regional and local air quality investigation, at minimum, date and time of observations, a description of the site, observed odors or irritants, and conclusions regarding acceptability of the outdoor air quality.&lt;br&gt;
+• Indication of whether the building is in an area where the national guideline is exceeded (outdoor air treatment is required per ASHRAE 62.1-2022, Section 6.1.4). &lt;br&gt; 
+• Calculation documents for mechanical ventilation (VRP), natural ventilation (NVP) and IAQ procedure (IAQP).&lt;br&gt; 
+• Air cleaning systems (if used): supporting documentation for safety and effectiveness.&lt;br&gt;  
+• IAQ Procedure: Air Quality Test Plan and Occupant Survey 
+Methodology.&lt;br&gt; 
+• IAQ Procedure: Completed air quality testing report including time, date, testing methods complying with credit requirements, results and limits of the tested contaminants in all locations, and lab accreditation scope for VOCs.&lt;br&gt; 
+• IAQ Procedure: Subjective Occupant Evaluation Results.&lt;br&gt; 
+• Floor plans or photos of entryway systems.&lt;br&gt; 
+• Design documents confirming filter grade and implementation.&lt;br&gt; 
+• Control diagrams showing outdoor air measurement devices (where required).&lt;br&gt; 
+• Confirmation the outdoor air measurement devices measures airflow rates.&lt;br&gt;&lt;br&gt; 
+only for Residential&lt;br&gt;
+• Confirmation there are CO monitors in all units.&lt;br&gt; 
+• Description of how each system complies with ASHRAE 62.2-2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• ASHRAE standard 62.1-2022 (ashrae.org/technicalresources/bookstore/standards-62-1-62-2)&lt;br&gt; 
+• ASHRAE standard 62.2-2022 (ashrae.org/technicalresources/bookstore/standards-62-1-62-2)&lt;br&gt; 
+• ASHRAE standard 170-2021 (ashrae.org/technical-resources/standards-and-guidelines/standards-addenda/ansi-ashrae-ashe-standard-170-2017-ventilation-of-health-
+care-facilities) 
+ </t>
+  </si>
+  <si>
+    <t>No Smoking or Vehicle Idling</t>
+  </si>
+  <si>
+    <t>To minimize exposure to tobacco smoke, smoke from tobacco substitutes or cannabis, and vehicle emissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comply with the following requirements:&lt;br&gt;&lt;br&gt;
+Prohibit Smoking:&lt;br&gt;
+• Indoor smoking: Prohibit smoking inside the building with limited exceptions (see below).&lt;br&gt;
+• Outdoor smoking: Prohibit smoking outside the building except in designated smoking areas located at least 25 feet (7.5 meters) (or the maximum extent allowable by local codes) from all entries, outdoor air intakes, and operable windows.&lt;br&gt;
+• School projects: Prohibit all smoking on-site.&lt;br&gt;&lt;br&gt;
+AND &lt;br&gt;&lt;br&gt;
+Prohibit Vehicle Idling:&lt;br&gt;
+• Prohibit vehicle idling on-site.&lt;br&gt;
+Communicate the no-smoking and vehicle idling prohibition policy to occupants. Have in place 
+provisions for enforcement or prohibitive signage.&lt;br&gt;&lt;br&gt;
+Residential &lt;br&gt;
+• Meet the requirements above for all areas inside and outside the building except dwelling units and private balconies:&lt;br&gt;&lt;br&gt;
+• For residential projects that do not prohibit smoking, each dwelling unit where smoking will be permitted must meet the following compartmentalization requirements:&lt;br&gt; 
+o Perform a blower door test of residential dwelling units, following the procedures in ANSI/RESNET/ICC 380 or equivalent. For each unit tested, demonstrate a maximum leakage of enclosure area that is no more than 1.5 times the thresholds identified in Table 1 (“enclosure area” refers to all surfaces enclosing the dwelling unit, including exterior and party walls, floors, and ceilings). Demonstrate a weighted average leakage of enclosure area for the building, including dwelling units, that complies with the caps in the limits identified in Table 1. (Caps on air leakage rates )&lt;br&gt; </t>
+  </si>
+  <si>
+    <t>for all projects:&lt;br&gt;
+• outdoor smoking areas, vehicle idling signage, location of property line, and site boundary and indicating 25-foot (7.5-meter) distance from building openings.&lt;br&gt; 
+• Description of project’s no smoking policy, including 
+information on how policy is communicated to building 
+occupants and enforced.&lt;br&gt;
+• Description of project’s vehicle idling policy, including 
+information on how policy is communicated to building 
+occupants and enforced.&lt;br&gt;&lt;br&gt;
+for Core and Shell:&lt;br&gt;
+• The Tenant Guidelines communicating the building's indoor and outdoor smoking and vehicle idling policies and the locations and details of signage installed to communicate the policies.&lt;br&gt;&lt;br&gt;
+for Residential:&lt;br&gt;
+• Air leakage calculations and blower door test report &lt;br&gt;
+• Confirmation that the blower door test of residential dwelling units follows the procedures in ANSI/RESNET/ICC 380 or equivalency of testing method demonstrated.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Investigate Regional and Local Air Quality&lt;br&gt;
+• Investigate outdoor air quality in accordance with ASHRAE Standard 62.1-2022, Sections 4.1–4.3.&lt;br&gt;&lt;br&gt;
+AND &lt;br&gt;&lt;br&gt;
+Ventilation and Filtration Design&lt;br&gt;
+Meet the requirements of ASHRAE Standard 62.1-2022, Sections 5 and 6. Use the ventilation rate procedure, the IAQ procedure, the natural ventilation procedure, or a combination thereof. &lt;br&gt;
+Comply with the following additional provisions:&lt;br&gt; 
+• Filtration. Each central HVAC system that supplies outdoor air and/or recirculated air to 
+regularly occupied spaces must meet one of the following:&lt;br&gt; 
+• Minimum efficiency reporting value (MERV) of 13, in accordance with ASHRAE Standard 
+52.2–2017; OR &lt;br&gt; 
+• Equivalent filtration media class of ePM1 50%, as defined by ISO 16890-2016, Particulate Air Filters for General Ventilation — Determination of the Filtration Performance; OR &lt;br&gt; 
+• In-room air-cleaning systems; OR&lt;br&gt; 
+• Systems tested for effectiveness and safety per ASHRAE Standard 241-2023, Section 7.4 (and Normative Appendix A). If treating for particles and gases, use systems tested for effectiveness per ASHRAE 62.1-2022, Addendum N. If treating for infectious aerosols, use systems tested for effectiveness per ASHRAE Standard 241-2023, Section 7.&lt;br&gt;
+• Outdoor air measurement. Provide outdoor airflow measurement devices for all mechanical ventilation systems with outdoor air intake flow greater than 1,000 cfm (472 L/s).&lt;br&gt;&lt;br&gt;
+Healthcare&lt;br&gt;
+• For healthcare spaces, meet the requirements of Sections 6–10 of ASHRAE Standard 170-
+2021.&lt;br&gt;&lt;br&gt;
+Residential&lt;br&gt;
+• For residential spaces, follow the additional dwelling unit provisions below. &lt;br&gt;&lt;br&gt;
+Dwelling Unit Provisions&lt;br&gt;
+If the project building contains residential units, each dwelling unit must meet all of the following 
+requirements:&lt;br&gt;
+• Design and install a dwelling-unit mechanical ventilation system that complies with ASHRAE 62.2-2022, Sections 4, 6.6, and 6.7. Supply and balanced mechanical ventilation systems must be designed and constructed to provide ventilation air directly from the outdoors. Mechanical ventilation systems are not required when the project meets the exception detailed in ASHRAE 62.2-2022, Section 4.1.1.&lt;br&gt;  
+• Design and install local mechanical exhaust systems in each kitchen and bathroom, including half baths, that comply with ASHRAE 62.2-2022, Sections 5 and 7. Exhaust air to the outdoors. Do not route exhaust ducts to terminate in attics or interstitial spaces. Recirculating range hoods or recirculating over-the-range microwaves do not satisfy the kitchen exhaust requirements. For exhaust hood systems capable of exhausting in excess of 400 cubic feet per minute (188 liters per second), provide makeup air at a rate approximately equal to the exhaust air rate. Makeup air systems must have a means of closure and be automatically controlled to start and operate simultaneously with the exhaust system. Use ENERGY STAR® labeled bathroom exhaust fans in all bathrooms (including half baths) or performance equivalent for projects outside the U.S. A heat recovery ventilator (HRV) or energy recovery ventilator (ERV) may be used to exhaust single or multiple bathrooms if it has an efficacy level meeting the ENERGY STAR® Technical Specifications for Residential Heat-Recovery Ventilators and Energy-Recovery Ventilators (H/ERVs), version 2.3 as certified by the Home Ventilating Institute. &lt;br&gt;
+• Unvented combustion appliances (ovens and ranges excluded) are not allowed.&lt;br&gt;
+• A carbon monoxide (CO) monitor must be installed on each floor of each dwelling unit, hard-wired with a battery backup. CO monitors are required in all types of units, regardless of the type of equipment installed in the unit.&lt;br&gt; 
+• Any indoor fireplaces and woodstoves must have solid glass enclosures or doors that seal when closed. Any indoor fireplaces and woodstoves that are not closed combustion or power-vented must pass a backdraft potential test to ensure that depressurization of the combustion appliance zone is less than 5 Pa.&lt;br&gt;
+• Space- and water-heating equipment that involves combustion must be designed and installed with closed combustion (i.e., sealed supply air and exhaust ducting) or with power-vented exhaust or located in a detached utility building or open-air facility.&lt;br&gt;&lt;br&gt;
+AND &lt;br&gt;&lt;br&gt;
+Entryway System Design&lt;br&gt;
+Install permanent entryway systems to capture dirt and particulates entering the building at primary exterior entrances. There is no length requirement for entryway systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased Ventilation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To design for increased indoor air quality (IAQ) to better protect the health of building occupants. </t>
+  </si>
+  <si>
+    <t>• Design the building to exceed the requirements of ASHRAE 62.1-2022, Section 6.&lt;br&gt;
+• Increase breathing zone outdoor air ventilation rates by at least 15% above the minimum rates 
+(for 1 point, or 30% for exemplary performance) as determined in EQp2: Fundamental Air 
+Quality.&lt;br&gt;
+• Increased outdoor air rates should be provided to 95% of all regularly occupied spaces.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>EQc1: Op2: Enhanced Indoor Air Quality Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculations documented under the fundamental air quality prerequisite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHRAE 62.1-2022 (store.accuristech.com/ashrae/standards/ashrae-62-1-
+2022?product_id=2501063) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced Indoor Air Quality Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Design the building to exceed the requirements of ASHRAE 62.1-2022, Section 6.&lt;br&gt;
+• In addition to the design compounds and design limits outlined in ASHRAE 62.1-2022, Tables 6-5 and 6-6, design and verify enhanced IAQ using the lower design limits listed below in Table1.&lt;br&gt;&lt;br&gt;
+Table 1. Additional design limits for enhanced indoor air quality design&lt;br&gt;
+• PM2.5: Enhanced IAQP design limit 10 ug/m3&lt;br&gt;
+• Formaldehyde: Enhanced IAQP design limit 20 ug/m3&lt;br&gt;
+• Ozone:  Enhanced IAQP design limit 10 ppb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc1: Op1: Increased Ventilation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation provided under the fundamental air quality prerequisite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biophilic Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Biophilic Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To move beyond neutral or sufficient spaces toward human-centered design that supports customization, enjoyment, and emotional connections between people and the building, thus 
+increasing the likelihood of consistent satisfaction and ongoing stewardship. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate biophilic design that demonstrates each of the following five principles adapted from 
+The Practice of Biophilic Design by Kellert and Calabrese159:&lt;br&gt;&lt;br&gt;
+• Biophilic design requires repeated and sustained engagement with nature.&lt;br&gt; 
+• Biophilic design focuses on human adaptations to the natural world that, over evolutionary time, have advanced people’s health, fitness, and well-being.&lt;br&gt; 
+• Biophilic design encourages an emotional attachment to the building and building location.&lt;br&gt; 
+• Biophilic design promotes positive interactions between people and nature that encourage an expanded sense of relationship and responsibility for the human and natural communities.&lt;br&gt;
+• Biophilic design encourages mutual reinforcing, interconnected, and integrated architectural solutions.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc2: Op1:Path 2: Quality Views&lt;br&gt;
+EQc2: Op2:Adaptable Environment&lt;br&gt;
+EQc2: Op3:Thermal Environment&lt;br&gt;
+EQc2: Op4:Sound Environment&lt;br&gt;
+EQc2: Op5: Lighting Environment
+</t>
+  </si>
+  <si>
+    <t>• Report/narrative identifying, classifying, and explaining each of five biophilic design principles incorporated into the project using the LEED v5 Indoor biophilic design Template. &lt;br&gt;
+• Evidence of the project's indoor biophilic design 
+features (for example any one of the following: contract documents, photographs, renderings, architectural mood board). &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The Practice of Biophilic Design by Kellert and Calabrese 
+(docs.wixstatic.com/ugd/21459d_81ccb84caf6d4bee8195f9b5af92d8f4.pdf) &lt;br&gt;
+• 14 Patterns of Biophilic Design by Terrapin Bright Green, 
+(terrapinbrightgreen.com/reports/14-patterns) &lt;br&gt;
+• Biophilic Design Framework developed by Judith Heerwagen and Gordon H. Orians, (usgbc.org/resources/biophilic-design-theory-science-and-practice-bringing-buildings-life) &lt;br&gt;
+• ASHRAE 55 (ashrae.org/technical-resources/bookstore/standard-55-thermal-environmental-conditions-for-human-occupancy) &lt;br&gt;
+• Illuminating Engineering Society (IES) TM-30-20 (ies.org)&lt;br&gt; 
+• WELL v2 (wellcertified.com/en/wellv2/overview. &lt;br&gt;
+• LM-83 (store.ies.org/product/approved-method-ies-spatial-daylight-autonomy-sda-and-annual-sunlight-exposure-ase/?v=0b3b97fa6688) </t>
+  </si>
+  <si>
+    <t>Quality Views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide occupants in the building with a view to the outdoor natural or urban environment for 
+75% (for 2 points, 90% for 3 points) of all regularly occupied floor area. Auditoriums, conference rooms dedicated to video conferencing, and gymnasiums may be excluded. Views into interior atria may be used to meet up to 30% of the required area. &lt;br&gt;&lt;br&gt;
+• Views must be through glass with a visible light transmittance above 40%. If the glazing 
+has frits, patterns, or tints, the view must be preserved. Neutral gray, bronze, and blue-green tints are acceptable.&lt;br&gt;
+• Views must include at least one of the following:&lt;br&gt; 
+o Nature, urban landmarks, or art; OR &lt;br&gt;
+o Objects at least 25 feet (7.5 meters) from the exterior of the glazing.&lt;br&gt; 
+• Occupants must have direct access to the view and be within three times the head height of the glazing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide occupants in the building with a view to the outdoor natural or urban environment for &lt;br&gt; 
+• 75% (for 2 points)&lt;br&gt;
+• 90% (for 3 points) &lt;br&gt;
+of all regularly occupied floor area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc2: Op1:Path 1: Integrated Biophilic Design&lt;br&gt; 
+EQc2: Op2:Adaptable Environment&lt;br&gt;
+EQc2: Op3:Thermal Environment&lt;br&gt;
+EQc2: Op4:Sound Environment&lt;br&gt;
+EQc2: Op5: Path1:  Solar Glare&lt;br&gt;
+EQc2: Op5: Path2: Quality Electric Lighting &lt;br&gt;
+EQc2: Op5: Path3: Proximity to Windows for Daylight Access &lt;br&gt;
+EQc2: Op5: Path4: Daylight Simulation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Percentage of regularly occupied area with access to views (%) &lt;br&gt;
+• LEED v5 Quality Views calculator or a quality view simulation report. &lt;br&gt;
+• Architectural drawings that demonstrate direct access to the view and qualifying distance from glazing or a quality view simulation report and report checklist. </t>
+  </si>
+  <si>
+    <t>Adaptable Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow occupants choice and flexibility, and/or the capability to adapt the space to meet their 
+individual needs. Provide variability and/or optionality for thermal, sound, and lighting environments that invite occupants to either alter their experience and/or move between sensory zones. Include at least one accessible quiet space that allows occupants to retreat from high levels of sensory stimulation. Projects must also demonstrate at least one of the additional 
+strategies below: &lt;br&gt;&lt;br&gt;
+Additional strategies &lt;br&gt;
+• Provide socializing, meeting, dining, eating, and/or working areas where occupants can sit outside the main action and have permanent architectural features at their backs, creating a comfortable, semi-protected space that overlooks the larger area (prospect). &lt;br&gt;
+Provide alternative paths that enable travel around the perimeter of the space so that people are not required to travel across a large open space. &lt;br&gt;
+• Provide choice in furniture configuration and a variety of seating to accommodate a wide range of body types, including seating with back rests and without arm rests. &lt;br&gt;
+• Provide height variety for permanently installed fixtures, like counters and sinks, and/or height-adjustable tables and desks, where appropriate. &lt;br&gt;
+• Provide outdoor or transitional space that encourages interaction with nature and is flexible or multiuse. Ensure the space is easily accessible for all occupants from within the building or located within 2,000 feet (600 meters) of a building entrance or access point. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc2: Op1:Path 1: Integrated Biophilic Design&lt;br&gt;
+EQc2: Op1:Path 2: Quality Views&lt;br&gt;
+EQc2: Op3:Thermal Environment&lt;br&gt;
+EQc2: Op4:Sound Environment&lt;br&gt;
+EQc2: Op5: Path1:  Solar Glare&lt;br&gt;
+EQc2: Op5: Path2: Quality Electric Lighting &lt;br&gt;
+EQc2: Op5: Path3: Proximity to Windows for Daylight Access &lt;br&gt;
+EQc2: Op5: Path4: Daylight Simulation
+</t>
+  </si>
+  <si>
+    <t>for all :&lt;br&gt;
+• Report/narrative identifying, classifying, and explaining each variability and/or optionality strategy for thermal, sound, and lighting environments.&lt;br&gt; 
+• Optional evidence of variability and/or optionality strategy for thermal, sound, and lighting environments (for example, contract documents, photographs, product information from the manufacturer).&lt;br&gt; 
+• Identification of one or more accessible quiet space.&lt;br&gt; 
+• Identification of the additional adaptability strategy in the project (prospect areas, furniture, permanently installed fixtures, outdoor transitional space).&lt;br&gt;&lt;br&gt;
+for Prospect areas: Evidence of the project's prospect spaces and alternative paths of travel (for example, contract documents, photographs, narrative).&lt;br&gt;&lt;br&gt;
+For Furniture : Evidence of the project's furniture configuration 
+choices and variety of seating (for example, contract documents, photographs, product information from manufacturer).&lt;br&gt;&lt;br&gt;
+For Permanently Installed Fixtures: Evidence of the height variety for permanently installed fixtures (for example, contract documents, photographs, product information from 
+manufacturer).&lt;br&gt;&lt;br&gt;
+For Outdoor Transitional Space: Evidence of occupant access to outdoor or transitional space and opportunities for interaction with nature (for example, floor and site plans, contract documents, photographs, narrative)</t>
+  </si>
+  <si>
+    <t>Thermal Environment</t>
+  </si>
+  <si>
+    <t>Design indoor occupied spaces to meet the requirements of ASHRAE Standard 55-2023, Thermal Environmental Conditions for Human Occupancy with errata. Investigate thermal conditions in and around the project and explain how the design considers the following:&lt;br&gt;&lt;br&gt; 
+• Thermal conditions that align and adjust with changing seasons.&lt;br&gt; 
+• Overcooling during nontemperate seasons.&lt;br&gt; 
+o Design solutions for newly arrived occupants or occupants transitioning between different thermal environments to adjust to the space while maintaining an appropriately warm environment for those already in the building.&lt;br&gt; 
+o Design solutions for long-term occupants in transition spaces to customize their working area.&lt;br&gt; 
+• Support for occupants carrying out different tasks requiring varying levels of movement.&lt;br&gt; 
+o Cooling solutions for those completing high-movement tasks.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc2: Op1:Path 1: Integrated Biophilic Design&lt;br&gt;
+EQc2: Op1:Path 2: Quality Views&lt;br&gt;
+EQc2: Op2:Adaptable Environment&lt;br&gt;
+EQc2: Op4:Sound Environment&lt;br&gt;
+EQc2: Op5: Path1:  Solar Glare&lt;br&gt;
+EQc2: Op5: Path2: Quality Electric Lighting &lt;br&gt;
+EQc2: Op5: Path3: Proximity to Windows for Daylight Access &lt;br&gt;
+EQc2: Op5: Path4: Daylight Simulation
+</t>
+  </si>
+  <si>
+    <t>• Design documentation per ASHRAE 55-2023.&lt;br&gt;
+• Identify transition spaces and spaces with occupants carrying out different activities and provide design documents that show solutions for these spaces to address various thermal comfort requirements</t>
+  </si>
+  <si>
+    <t>Sound Environmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mapping Acoustical Expectations for Indoor and Outdoor Spaces </t>
+  </si>
+  <si>
+    <t>Determine the desired sound environment early in the design process by mapping the 
+acoustical expectations for each primary indoor and outdoor space, specific to the use of the 
+space and occupant needs. Categories to consider include noise exposure, acoustical comfort 
+and noise sensitivity, acoustical privacy, communication, and soundscape.&lt;br&gt; 
+These are example classifications for: &lt;br&gt;&lt;br&gt; 
+• Noise exposure zones: High risk, medium risk, low risk, or no risk.&lt;br&gt; 
+• Acoustical comfort: Loud zone, quiet zone, mixed zone, circulation, sensitive, and no 
+specific expectations.&lt;br&gt; 
+• Acoustical privacy: High speech security, confidential speech privacy, normal speech 
+privacy, marginal speech privacy, or no privacy.&lt;br&gt;  
+• Communication zones: Excellent, good, marginal, and none or no specific expectations.&lt;br&gt;  
+• Soundscape management: Preserve, improve, restore, mitigate, specialized (e.g., 
+wellness, therapeutic, or agency in equity), or no specific expectations.&lt;br&gt;&lt;br&gt;  
+Define acoustic criteria and potential design strategies and solutions to meet the acoustical 
+expectations for each space. Categories to consider include internally generated background 
+noise, externally intrusive background noise, electronically generated masking sound, outdoor 
+acoustical environment, airborne sound reverberation, sound insulation, vibration insulation, and impact noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc2: Op1:Path 1: Integrated Biophilic Design&lt;br&gt;
+EQc2: Op1:Path 2: Quality Views&lt;br&gt;
+EQc2: Op2:Adaptable Environment&lt;br&gt;
+EQc2: Op3:Thermal Environment&lt;br&gt;
+EQc2: Op5: Path1:  Solar Glare&lt;br&gt;
+EQc2: Op5: Path2: Quality Electric Lighting &lt;br&gt;
+EQc2: Op5: Path3: Proximity to Windows for Daylight Access &lt;br&gt;
+EQc2: Op5: Path4: Daylight Simulation
+</t>
+  </si>
+  <si>
+    <t>EQc2: Op4:Path 2: Acoustic Criteria for Indoor and Outdoor Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• LEED v5 Acoustics Mapping Template. &lt;br&gt;
+• Potential design strategies and solutions the project could use to meet the Acoustical Expectations for each space. </t>
+  </si>
+  <si>
+    <t>Acoustic Criteria for Indoor and Outdoor Spaces</t>
+  </si>
+  <si>
+    <t>Through calculations, modeling, and/or measurements, demonstrate that the mapping exercise 
+completed in Path 1 informed design strategies and solutions to meet acoustic criteria for at 
+least 75% of the occupied spaces, and all classrooms and other core learning spaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc2: Op4: Path 1:  Mapping Acoustical Expectations for Indoor and Outdoor Spaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculations, modeling, and/or measurements to demonstrate how the strategies and solutions contribute to accomplishment of the Acoustic Criteria identified in the LEED v5 Acoustics Mapping Template. </t>
+  </si>
+  <si>
+    <t>Lighting Environment</t>
+  </si>
+  <si>
+    <t>Solar Glare</t>
+  </si>
+  <si>
+    <t>Provide manual or automatic (with manual override) glare-control devices in all regularly  occupied spaces that will receive direct or reflected sun penetration. Spaces designed 
+intentionally for direct sunlight may be excluded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc2: Op1:Path 1: Integrated Biophilic Design&lt;br&gt;
+EQc2: Op1:Path 2: Quality Views&lt;br&gt;
+EQc2: Op2:Adaptable Environment&lt;br&gt;
+EQc2: Op3:Thermal Environment&lt;br&gt;
+EQc2: Op4: Sound Environment&lt;br&gt;
+EQc2: Op5: Path2: Quality Electric Lighting&lt;br&gt;
+EQc2: Op5: Path3: Proximity to Windows for Daylight Access&lt;br&gt;
+EQc2: Op5: Path4: Daylight Simulation
+</t>
+  </si>
+  <si>
+    <t>• Contract documents highlighting provision of glare-
+control devices in all qualifying regularly occupied spaces.&lt;br&gt;
+• Floor plans highlighting regularly occupied spaces.</t>
+  </si>
+  <si>
+    <t>Quality Electric Lighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comply with the following requirements for regularly occupied spaces:&lt;br&gt;&lt;br&gt;    
+Electric light glare control &lt;br&gt; 
+Each luminaire shall meet one of the following requirements:&lt;br&gt;   
+• Have calculated luminance of less than 6,000 candela per square meter (cd/sq. m.) between 45 and 90 degrees from nadir.&lt;br&gt; 
+• Achieve a unified glare rating (UGR) of 19 or lower using the UGR tabular method for each space.&lt;br&gt; 
+• Achieve a UGR rating of 19 or lower using software modeling calculations of the designed lighting. (Modeling must be performed as outlined in the NEMA White Paper on 
+Unified Glare Rating160).&lt;br&gt;&lt;br&gt;
+Color rendering&lt;br&gt;
+Use luminaires that have a color rendering index of at least 90, or that meet the color rendering 
+requirements in Table 1, in accordance with Illuminating Engineering Society (IES) TM-30-20.&lt;br&gt;&lt;br&gt;
+Table 1. Color rendering requirements using TM-30-20&lt;br&gt;
+• Fidelity index Rf : 78 or higher &lt;br&gt;
+• Gamut index Rg: 95 or higher&lt;br&gt;
+• Red Local Chroma Shift : Rcs,h1:  -1% to 15% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc2: Op1:Path 1: Integrated Biophilic Design&lt;br&gt;
+EQc2: Op1:Path 2: Quality Views&lt;br&gt;
+EQc2: Op2:Adaptable Environment&lt;br&gt;
+EQc2: Op3:Thermal Environment&lt;br&gt;
+EQc2: Op4: Sound Environment&lt;br&gt;
+EQc2: Op5: Path1:  Solar Glare&lt;br&gt;
+EQc2: Op5: Path3: Proximity to Windows for Daylight Access&lt;br&gt;
+EQc2: Op5: Path4: Daylight Simulation
+</t>
+  </si>
+  <si>
+    <t>• Lighting specifications with luminance values.&lt;br&gt;
+• Documentation demonstrating required UGR using 
+UGR Tabular Method or software modeling calculations of the designed lighting.&lt;br&gt;
+• Lighting specifications with color rendering information.</t>
+  </si>
+  <si>
+    <t>Proximity to Windows for Daylight Access</t>
+  </si>
+  <si>
+    <t>Design the interior layout to provide at least 30% of the regularly occupied area to be within a 
+20-foot (6 meters) horizontal distance of envelope glazing. The glazing must have a visible light transmittance above 40%. Regularly occupied areas with visual obstructions (incapable of providing a view to envelope glazing) should be excluded from the compliant area.</t>
+  </si>
+  <si>
+    <t>EQc2: Op1:Path 1: Integrated Biophilic Design&lt;br&gt;
+EQc2: Op1:Path 2: Quality Views&lt;br&gt; 
+EQc2: Op2:Adaptable Environment&lt;br&gt;
+EQc2: Op3:Thermal Environment&lt;br&gt;
+EQc2: Op4: Sound Environment&lt;br&gt;
+EQc2: Op5: Path1:  Solar Glare&lt;br&gt;
+EQc2: Op5: Path2: Quality Electric Lighting&lt;br&gt; 
+EQc2: Op5: Path4: Daylight Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• LEED v5 Daylight calculator a quality view 
+simulation report. &lt;br&gt;
+• Evidence of proximity to envelope glazing (for example, floor plans and sections, showing furniture (at least within scope), identifying all space types and whether they are regularly or nonregularly occupied, indicating the horizontal distance from regularly occupied areas to the envelope glazing).&lt;br&gt;
+• Evidence of the visible light transmittance for each regularly occupied space (for example, contract documents) </t>
+  </si>
+  <si>
+    <t>Daylight Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a daylight simulation analysis for the project to understand and optimize access to 
+daylight and visual comfort. Use the calculation protocols in IES LM-83-23 with the following 
+clarifications:&lt;br&gt;&lt;br&gt; 
+• Calculate spatial daylight autonomy300/50% (sDA300/50%) and annual sunlight 
+exposure1000,250 (ASE1000,250) as defined in IES LM-83-23 for each regularly occupied 
+space in the project. sDA150/50% may be used for areas without visual tasks with design 
+targets of 225 lux. &lt;br&gt;
+• For any regularly occupied spaces with ASEnet(1000,250h) greater than 20%, identify how the space is designed to address glare.&lt;br&gt; 
+• Calculate the average sDA300/50% or sDA150/50% for the total regularly occupied floor area.Do not exclude spaces based on ASE. Points are awarded based on this calculation, 
+according to Table 2.&lt;br&gt; </t>
+  </si>
+  <si>
+    <t>Table 2. Points for daylight simulation&lt;br&gt;&lt;br&gt; 
+Average sDA300/50% or sDA150/50% value:&lt;br&gt;
+• ≥ 40%(1Point)&lt;br&gt; 
+• ≥ 55% (2Points)&lt;br&gt;
+• ≥ 65% (3Points)&lt;br&gt;
+• ≥ 75% (4Points)</t>
+  </si>
+  <si>
+    <t>EQc2: Op1:Path 1: Integrated Biophilic Design&lt;br&gt;
+EQc2: Op1:Path 2: Quality Views&lt;br&gt;
+EQc2: Op2:Adaptable Environment&lt;br&gt;
+EQc2: Op3:Thermal Environment&lt;br&gt;
+EQc2: Op4: Sound Environment&lt;br&gt;
+EQc2: Op5: Path1:  Solar Glare&lt;br&gt;
+EQc2: Op5: Path2: Quality Electric Lighting &lt;br&gt;
+EQc2: Op5: Path3: Proximity to Windows for Daylight Access</t>
+  </si>
+  <si>
+    <t>• Average sDA value for all regularly occupied floor area (%).&lt;br&gt; 
+• Daylight simulation report and model simulation checklist.&lt;br&gt;
+• Evidence of the simulation inputs including model simulation checklist.&lt;br&gt; 
+• Explain which regularly occupied spaces have a ASEnet (1000,250h) greater than 20%. How was the space is designed to address glare? &lt;br&gt;
+• Explain which areas used sDA150/50% in the simulation, and the tasks that take place there, justifying that design targets of only 225 lux are needed.</t>
+  </si>
+  <si>
+    <t>Accessibility and Inclusion</t>
+  </si>
+  <si>
+    <t>To support the diverse needs of occupants and increase widespread usability of the building to 
+foster an individual and collective sense of belonging.</t>
+  </si>
+  <si>
+    <t>Comply With Local Accessibility Codes&lt;br&gt;  
+All projects must support access for those with physical disabilities through designs meeting all locally applicable accessibility codes identified in IPp2: Human Impact Assessment. If there is no code in place, include the following strategies:&lt;br&gt;&lt;br&gt;  
+• Accessible routes or regularly used exterior building entrances have ramps to 
+accommodate elevation change.&lt;br&gt;  
+• All doors meant for human passage have a minimum clear width of 32 in (0.86 meters).&lt;br&gt; 
+• Reception desks, security counters, and service counters all have a front approach, wheelchair-accessible section&lt;br&gt;&lt;br&gt; 
+Include at least 10 of the following accessibility and inclusion strategies most relevant to the project that go beyond the locally applicable accessibility code.&lt;br&gt;&lt;br&gt;
+ ACCESSIBILITY FOR PHYSICAL DIVERSITY&lt;br&gt; 
+• Provide wave-to-open or vertical hand/foot press door operators at all regularly used building entrances.&lt;br&gt; 
+• Design meeting spaces to accommodate mobility devices for at least 10% of occupants. 
+• Incorporate accessible and inclusive equipment and activities in fitness facilities. Ensure an open and accessible route to and around the equipment.&lt;br&gt;&lt;br&gt; 
+ACCESSIBILITY FOR SAFETY AND AGING&lt;br&gt; 
+• Provide nonslip flooring.&lt;br&gt; 
+• Fix underside of area rugs to floor and provide transition strips at all edges.&lt;br&gt; 
+• Provide visual indication or railing at all full-height glazing, except in private residences.&lt;br&gt; 
+• Provide audible and visual alerts for emergency alerts.&lt;br&gt; 
+• Provide closed risers (visually and physically) in all stairs.&lt;br&gt; 
+• Use visual contrast between walls and floors, walls and doors, and walls and casework.&lt;br&gt; 
+• Provide visual, tactile, contrasting, or photoluminescent warnings at floor level changes.&lt;br&gt;&lt;br&gt; 
+ ACCESSIBILITY FOR SOCIAL HEALTH &lt;br&gt;
+• Provide lactation room pods.&lt;br&gt; 
+• Provide at least one fully accessible, all-gender, single-use restroom OR one multiuse, 
+all-gender restroom on each floor of the building.&lt;br&gt; 
+• Include at least one adult changing station or table in a designated, accessible restroom or 
+family restroom, or in one men’s and one women’s restroom.&lt;br&gt;  
+• Provide signage in all languages spoken by more than 5% of the local population. &lt;br&gt;
+• Support neurodivergent users by achieving EQc2: Occupant Experience, Option 1, 
+Biophilic Environments, Path 1, Integrated Biophilic Design. &lt;br&gt;&lt;br&gt;
+ ACCESSIBILITY FOR NAVIGATION&lt;br&gt; 
+• Provide wayfinding signage that clearly indicates exits, entrances, and major functions in 
+the project.&lt;br&gt; 
+• Provide nontext diagrams and symbols at signage. &lt;br&gt;
+• Provide braille, visual and auditory cues, and/or continuous linear indicators on paths of 
+travel.&lt;br&gt; 
+• Use patterns and color blocking to identify key access spaces.&lt;br&gt; 
+• Provide haptic/tactile maps for wayfinding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comply with Local Accessibility Codes:&lt;br&gt;
+• Confirmation of whether there is a locally applicable accessibility code for the project.&lt;br&gt; 
+• If the project has not met all locally applicable accessibility 
+codes: contract documents highlighting the appropriate 
+ramps, door widths, and front approach wheelchair accessible counter sections.&lt;br&gt;&lt;br&gt;
+Accessibility and Inclusion Strategies:&lt;br&gt;
+• Project Strategies (check, from the standard list in Requirements, which strategies have been implemented)&lt;br&gt;
+• Narrative identifying locations in documents where project 
+strategies are documented (file name, page number, at 
+minimum). 
+</t>
+  </si>
+  <si>
+    <t>Management Mode for Episodic Outdoor Ambient Conditions — New Construction Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To support design features that increase the capacity for occupants to adapt to changing climate conditions and be protected from events that may compromise the quality of the indoor environment and subsequently occupant health and well-being. </t>
+  </si>
+  <si>
+    <t>• This option applies to LEED BD+C: New Construction projects only. &lt;br&gt;
+• Design systems with the capability to operate an episodic outdoor event management mode as described in ASHRAE Guideline 44. The mode should address varying outdoor conditions or events that could negatively influence indoor air quality, such as wildfire smoke. Include the management mode in the design and commissioning documents. Verify proper implementation of the mode during commissioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc4:Op2:  Management Mode for Respiratory Diseases — New Construction Only&lt;br&gt; 
+EQc4:Op3: Path 1:  Consider Extreme Heat&lt;br&gt;
+EQc4:Op3: Path 2:  Consider Extreme Cold&lt;br&gt;
+EQc4:Op4: Operable Windows
+</t>
+  </si>
+  <si>
+    <t>• Design documents confirming management mode design and sequence of options. &lt;br&gt;
+• Final Commissioning Report, confirming that management mode was tested during Commissioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• ASHRAE Guideline 44 (store.accuristech.com/ashrae/standards/guideline-44-2024-
+protecting-building-occupants-from-smoke-during-wildfire-and-prescribed-burn-events?product_id=2923808) &lt;br&gt;
+• ASHRAE 241-2023 (store.accuristech.com/ashrae/standards/ashrae-241-2023?product_id=2567398) &lt;br&gt;
+• FEMA P-361 (fema.gov/sites/default/files/documents/fema_p-361_safe-rooms-for-tornadoes-and-hurricanes_122024.pdf) &lt;br&gt;
+• FEMA E-74 (2011) (fema.gov/sites/default/files/2020-07/fema_earthquakes_reducing-the-risks-of-nonstructural-earthquake-damage-a-practical-guide-fema-e-74.pdf) &lt;br&gt;
+• REDi Version 1.0 (redi.arup.com) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management Mode for Respiratory Diseases — New 
+Construction Only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design occupied spaces with the capability to operate an infection risk management mode that provides the minimum equivalent clean airflow rates outlined in ASHRAE 241-2023, Section 5.1. Include the management mode in the design and commissioning documents as outlined in ASHRAE 241-2023, Section B10.2 Design Documentation. Verify proper implementation of the mode during commissioning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc4:Op1: Management Mode for Episodic Outdoor Ambient Conditions — New Construction Only&lt;br&gt;
+EQc4:Op3: Path 1:  Consider Extreme Heat&lt;br&gt;
+EQc4:Op3: Path 2:  Consider Extreme Cold&lt;br&gt;
+EQc4:Op4: Operable Windows
+</t>
+  </si>
+  <si>
+    <t>Design for Occupant Thermal Safety During Power Outages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider Extreme Heat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demonstrate through thermal modeling that a building will passively maintain thermally 
+habitable conditions during a power outage that lasts two days during peak summertime 
+conditions of a typical meteorological year. Designate specific thermal safety zones where 
+habitable conditions will be maintained during a power outage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc4:Op1: Management Mode for Episodic Outdoor Ambient Conditions — New Construction Only&lt;br&gt;
+EQc4:Op2:  Management Mode for Respiratory Diseases — New Construction Only&lt;br&gt;
+EQc4:Op3: Path 2:  Consider Extreme Cold&lt;br&gt;
+EQc4:Op4: Operable Windows
+</t>
+  </si>
+  <si>
+    <t>Thermal model report and results and identify thermal safety zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consider Extreme Cold</t>
+  </si>
+  <si>
+    <t>Demonstrate through thermal modeling or Passive House certification that a building will 
+passively maintain thermally habitable conditions during a power outage that lasts two days 
+during peak wintertime conditions of a typical meteorological year. Designate specific thermal safety zones where habitable conditions will be maintained during a power outage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc4:Op1: Management Mode for Episodic Outdoor Ambient Conditions — New Construction Only&lt;br&gt;
+EQc4:Op2:  Management Mode for Respiratory Diseases — New Construction Only &lt;br&gt;
+EQc4:Op3: Path 1:  Consider Extreme Heat&lt;br&gt;
+EQc4:Op4: Operable Windows
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operable Windows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design 50% for 1 point or 75% for 2 points of the regularly occupied spaces to have operable windows with the capability to provide access to outdoor air during heat waves or localized power outages. The windows must meet the opening size and location requirements of ASHRAE 62.1-2022, Section 6.4. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc4:Op1: Management Mode for Episodic Outdoor Ambient Conditions — New Construction Only&lt;br&gt;
+EQc4:Op2:  Management Mode for Respiratory Diseases — New Construction Only&lt;br&gt;
+EQc4:Op3: Path 1:  Consider Extreme Heat&lt;br&gt;
+EQc4:Op3: Path 2:  Consider Extreme Cold
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• ASHRAE Standard 62.1 calculations for opening areas and distances for all regularly occupied spaces.&lt;br&gt;
+• Percentage of spaces with operable windows. </t>
+  </si>
+  <si>
+    <t>Preoccupancy Air Testing</t>
+  </si>
+  <si>
+    <t>Particulate Matter and Inorganic Gases</t>
+  </si>
+  <si>
+    <t>To support better management of indoor air quality (IAQ) and identify opportunities for health-based approaches to building operations.</t>
+  </si>
+  <si>
+    <t>After construction ends and before occupancy, but under ventilation conditions typical for 
+occupancy, conduct baseline IAQ testing. Retail projects may conduct the testing within 14 days of occupancy. The number of measurements should be specified according to Table 1 and taken in representative locations of the building&lt;br&gt;&lt;br&gt;
+Table 1. Number of measurements required for preoccupancy air testing:&lt;br&gt;
+• Total occupied floor area, sq. ft. (sq. m.: ≤ 5,000 (500)/Number of measurements:1.&lt;br&gt;
+• Total occupied floor area, sq. ft. (sq. m.: &gt; 5,000 (500) and ≤ 15,000 (1,500)/Number of measurements:2.&lt;br&gt;
+• Total occupied floor area, sq. ft. (sq. m.: &gt; 25,000 (2,500) and ≤ 200,000 (20,000) /Number of measurements:4 plus 1 additional measurement per each 
+25,000 sq. ft. (2,500 sq. m.) above 25,000 sq. ft.&lt;br&gt;
+• Total occupied floor area, sq. ft. (sq. m.: &gt; 200,000 /Number of measurements:10 plus 1 additional measurement per each 50,000 sq. ft. (4600 sq. m.) above 200,000 sq. ft.&lt;br&gt;&lt;br&gt;
+• Test for the particulate matter (PM) and inorganic gases listed in Table 2 using an allowed test method and demonstrate that the contaminants do not exceed the concentration limits listed in the table. Measure for a four-hour period, calculating peak concentration for carbon monoxide and average concentration for ozone, PM2.5, and PM10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc5:Op1:Path2: Volatile Organic Compounds&lt;br&gt;  
+EQc5:Op2: Continuous Indoor Air Monitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Completed air quality testing report, including time, date, testing methods complying with credit requirements, results and limits of the tested contaminants in all locations, and lab accreditation scope for Path 2 VOCs if applicable.&lt;br&gt; 
+• Evidence of testing locations &lt;br&gt;
+• Document confirming substantial completion of construction, highlighting the date. The intent is to confirm that construction was complete prior to the time/date of the air quality testing.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• ISO 4224 (iso.org/standard/32229.html)&lt;br&gt; 
+• EPA Compendium Method IP-3, GB/T 18883-2002 
+(nepis.epa.gov/Exe/ZyPURL.cgi?Dockey=30003ULE.txt)&lt;br&gt; 
+• ISO 13964 (iso.org/standard/23528.html)&lt;br&gt;  
+• ASTM D5149-02 (astm.org/d5149-24.html)&lt;br&gt;  
+• EPA designated methods for Ozone (epa.gov/system/files/documents/2024-12/amtic-list-
+december-2024_final.pdf)&lt;br&gt;  
+• ISO IEC 17025 (iso.org/ISO-IEC-17025-testing-and-calibration-laboratories.html)&lt;br&gt;  
+• CDPH Standard Method v1.2-2017 
+(cdph.ca.gov/Programs/cls/dehl/ehl/Pages/AQS/VOCs.aspx)&lt;br&gt;  
+• Reset Air Accredited Monitors (reset.build/directory/monitors)&lt;br&gt; 
+• UL 2905 (shopulstandards.com/ProductDetail.aspx?productId=ULE2905_2_S_20230110) </t>
+  </si>
+  <si>
+    <t>Volatile Organic Compounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After construction ends and before occupancy, but under ventilation conditions typical for 
+occupancy, conduct baseline IAQ testing. Retail projects may conduct the testing within 14 days of occupancy. The number of measurements should be specified according to Table 1 and taken in representative locations of the building&lt;br&gt;&lt;br&gt;
+Table 1. Number of measurements required for preoccupancy air testing:&lt;br&gt;
+• Total occupied floor area, sq. ft. (sq. m.: ≤ 5,000 (500)/Number of measurements:1.&lt;br&gt;
+• Total occupied floor area, sq. ft. (sq. m.: &gt; 5,000 (500) and ≤ 15,000 (1,500)/Number of measurements:2.&lt;br&gt;
+• Total occupied floor area, sq. ft. (sq. m.: &gt; 25,000 (2,500) and ≤ 200,000 (20,000) /Number of measurements:4 plus 1 additional measurement per each 25,000 sq. ft. (2,500 sq. m.) above 25,000 sq. ft.&lt;br&gt;
+• Total occupied floor area, sq. ft. (sq. m.: &gt; 200,000 /Number of measurements:10 plus 1 additional measurement per each 50,000 sq. ft. (4600 sq. m.) above 200,000 sq. ft.&lt;br&gt;&lt;br&gt;
+• Perform a screening test for total volatile organic compounds (TVOC). Use ISO 16000-6, EPA TO-17, or EPA TO-15 to collect and analyze the air sample. Calculate the TVOC value per EN 16516:2017; CDPH Standard Method v1.2 2017, Section 3.9.4; or alternative calculation method if full method description is included in test report.&lt;br&gt;
+• If the TVOC levels exceed 500 µg/m3, investigate for potential issues by comparing the individual volatile organic compound (VOC) levels from the GC/MS results to associated cognizant authority health-based limits. Correct any identified issues and retest if necessary.&lt;br&gt; 
+• Test for the individual VOCs listed in Table 3 using an allowed test method and demonstrate that the contaminants do not exceed the concentration limits listed in the table. Laboratories that conduct the tests must be accredited under ISO/IEC 17025 for the test methods they use. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQc5:Op1:Path1: Particulate Matter and Inorganic Gases &lt;br&gt;  
+EQc5:Op2: Continuous Indoor Air Monitoring </t>
+  </si>
+  <si>
+    <t>Continuous Indoor Air Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide indoor air monitors for all the following parameters:&lt;br&gt;&lt;br&gt; 
+• Carbon dioxide (CO2)&lt;br&gt;
+• Particulate matter (PM2.5)&lt;br&gt; 
+• Total volatile organic compounds&lt;br&gt;
+• Temperature&lt;br&gt; 
+• Relative humidity&lt;br&gt;&lt;br&gt; 
+Monitors must be building grade or better and located 3–6 feet (1–2 meters) above the floor. </t>
+  </si>
+  <si>
+    <t>EQc5:Op1:Path1: Particulate Matter and Inorganic &lt;br&gt;  
+EQc5:Op1:Path2: Volatile Organic Compounds</t>
+  </si>
+  <si>
+    <t>• Evidence of monitoring locations and description of monitoring approach&lt;br&gt; 
+• Specifications of building grade air monitors.</t>
+  </si>
+  <si>
+    <t>Sound Environment</t>
   </si>
 </sst>
 </file>
@@ -3667,7 +4470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3725,6 +4528,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4060,12 +4866,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE84523-0D3E-4764-AE73-85D32AAF3F53}">
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88:XFD95"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4109,49 +4915,49 @@
         <v>24</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="60" customHeight="1">
@@ -4165,43 +4971,43 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>312</v>
+        <v>210</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q2" s="20">
         <v>0</v>
@@ -4225,43 +5031,43 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>312</v>
+        <v>121</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q3" s="20">
         <v>0</v>
@@ -4285,43 +5091,43 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>203</v>
+        <v>612</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>312</v>
+        <v>121</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q4" s="20">
         <v>0</v>
@@ -4345,43 +5151,43 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>312</v>
+        <v>121</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q5" s="20">
         <v>0</v>
@@ -4405,43 +5211,43 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>313</v>
+      <c r="P6" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q6" s="20">
         <v>0</v>
@@ -4468,13 +5274,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H7" s="4">
         <v>6</v>
@@ -4483,25 +5289,25 @@
         <v>26</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>313</v>
+      <c r="P7" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q7" s="20">
         <v>0</v>
@@ -4528,13 +5334,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -4546,22 +5352,22 @@
         <v>28</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>313</v>
+      <c r="P8" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q8" s="20">
         <v>0</v>
@@ -4588,13 +5394,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H9" s="4">
         <v>6</v>
@@ -4603,16 +5409,16 @@
         <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>30</v>
@@ -4620,8 +5426,8 @@
       <c r="O9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>313</v>
+      <c r="P9" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q9" s="20">
         <v>0</v>
@@ -4648,40 +5454,40 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>313</v>
+        <v>211</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q10" s="20">
         <v>0</v>
@@ -4708,40 +5514,40 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>313</v>
+        <v>211</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q11" s="20">
         <v>0</v>
@@ -4771,37 +5577,37 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H12" s="4">
         <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q12" s="20">
         <v>0</v>
@@ -4831,37 +5637,37 @@
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q13" s="20">
         <v>0</v>
@@ -4891,37 +5697,37 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q14" s="20">
         <v>0</v>
@@ -4951,37 +5757,37 @@
         <v>2</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q15" s="20">
         <v>0</v>
@@ -5008,40 +5814,40 @@
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H16" s="4">
         <v>2</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q16" s="20">
         <v>0</v>
@@ -5062,46 +5868,46 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H17" s="4">
         <v>2</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>313</v>
+        <v>139</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q17" s="20">
         <v>0</v>
@@ -5122,7 +5928,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -5131,37 +5937,37 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H18" s="4">
         <v>4</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>313</v>
+        <v>139</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q18" s="20">
         <v>0</v>
@@ -5182,7 +5988,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -5191,37 +5997,37 @@
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H19" s="4">
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>313</v>
+        <v>139</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q19" s="20">
         <v>0</v>
@@ -5242,46 +6048,46 @@
         <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H20" s="4">
         <v>3</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>313</v>
+        <v>139</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q20" s="20">
         <v>0</v>
@@ -5305,43 +6111,43 @@
         <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>313</v>
+        <v>160</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q21" s="20">
         <v>0</v>
@@ -5371,37 +6177,37 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H22" s="4">
         <v>3</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>313</v>
+        <v>160</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q22" s="20">
         <v>0</v>
@@ -5431,37 +6237,37 @@
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="4">
         <v>2</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>313</v>
+        <v>160</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q23" s="20">
         <v>0</v>
@@ -5491,37 +6297,37 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>313</v>
+        <v>160</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q24" s="20">
         <v>0</v>
@@ -5551,37 +6357,37 @@
         <v>2</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="H25" s="4">
         <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>313</v>
+        <v>160</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q25" s="20">
         <v>0</v>
@@ -5611,37 +6417,37 @@
         <v>3</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>313</v>
+        <v>160</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q26" s="20">
         <v>0</v>
@@ -5668,40 +6474,40 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H27" s="4">
         <v>2</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>313</v>
+        <v>212</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q27" s="20">
         <v>0</v>
@@ -5728,40 +6534,40 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>313</v>
+        <v>213</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q28" s="20">
         <v>0</v>
@@ -5782,46 +6588,46 @@
         <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>312</v>
+        <v>214</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q29" s="20">
         <v>0</v>
@@ -5851,37 +6657,37 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>313</v>
+        <v>228</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q30" s="20">
         <v>0</v>
@@ -5911,37 +6717,37 @@
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H31" s="4">
         <v>2</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>313</v>
+        <v>228</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q31" s="20">
         <v>0</v>
@@ -5968,40 +6774,40 @@
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L32" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="21" t="s">
         <v>296</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="Q32" s="20">
         <v>0</v>
@@ -6025,43 +6831,43 @@
         <v>90</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q33" s="20">
         <v>0</v>
@@ -6088,40 +6894,40 @@
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H34" s="4">
         <v>3</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>313</v>
+        <v>293</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q34" s="20">
         <v>0</v>
@@ -6148,40 +6954,40 @@
         <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H35" s="4">
         <v>3</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>313</v>
+        <v>293</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="20">
@@ -6200,46 +7006,46 @@
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H36" s="4">
         <v>2</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>313</v>
+        <v>300</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q36" s="20">
         <v>0</v>
@@ -6266,40 +7072,40 @@
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q37" s="20">
         <v>0</v>
@@ -6326,40 +7132,40 @@
         <v>2</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q38" s="20">
         <v>0</v>
@@ -6386,40 +7192,40 @@
         <v>3</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q39" s="20">
         <v>0</v>
@@ -6443,43 +7249,43 @@
         <v>93</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q40" s="20">
         <v>0</v>
@@ -6503,43 +7309,43 @@
         <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>341</v>
+        <v>613</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>312</v>
+        <v>121</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q41" s="20">
         <v>0</v>
@@ -6563,43 +7369,43 @@
         <v>96</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q42" s="20">
         <v>0</v>
@@ -6620,46 +7426,46 @@
         <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H43" s="4">
         <v>1</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q43" s="20">
         <v>0</v>
@@ -6680,46 +7486,46 @@
         <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H44" s="4">
         <v>1</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q44" s="20">
         <v>0</v>
@@ -6746,40 +7552,40 @@
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H45" s="4">
         <v>8</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q45" s="20">
         <v>0</v>
@@ -6806,40 +7612,40 @@
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H46" s="4">
         <v>3</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="P46" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q46" s="20">
         <v>0</v>
@@ -6866,40 +7672,40 @@
         <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H47" s="4">
         <v>2</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="P47" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q47" s="20">
         <v>0</v>
@@ -6929,37 +7735,37 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="H48" s="4">
         <v>2</v>
       </c>
       <c r="I48" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="O48" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="P48" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q48" s="20">
         <v>0</v>
@@ -6989,37 +7795,37 @@
         <v>2</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="H49" s="4">
         <v>2</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q49" s="20">
         <v>0</v>
@@ -7049,37 +7855,37 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="H50" s="4">
         <v>2</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q50" s="20">
         <v>0</v>
@@ -7109,37 +7915,37 @@
         <v>2</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="H51" s="4">
         <v>2</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="P51" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q51" s="20">
         <v>0</v>
@@ -7169,37 +7975,37 @@
         <v>3</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="H52" s="4">
         <v>2</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="P52" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q52" s="20">
         <v>0</v>
@@ -7223,43 +8029,43 @@
         <v>104</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>312</v>
+        <v>121</v>
+      </c>
+      <c r="P53" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q53" s="20">
         <v>0</v>
@@ -7286,40 +8092,40 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q54" s="20">
         <v>0</v>
@@ -7346,40 +8152,40 @@
         <v>2</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q55" s="20">
         <v>0</v>
@@ -7403,43 +8209,43 @@
         <v>106</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>312</v>
+        <v>384</v>
+      </c>
+      <c r="P56" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q56" s="20">
         <v>0</v>
@@ -7463,43 +8269,43 @@
         <v>107</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>312</v>
+        <v>387</v>
+      </c>
+      <c r="P57" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q57" s="20">
         <v>0</v>
@@ -7526,40 +8332,40 @@
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>312</v>
+        <v>393</v>
+      </c>
+      <c r="P58" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q58" s="20">
         <v>0</v>
@@ -7586,40 +8392,40 @@
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>312</v>
+        <v>393</v>
+      </c>
+      <c r="P59" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q59" s="20">
         <v>0</v>
@@ -7646,40 +8452,40 @@
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H60" s="4">
         <v>5</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>313</v>
+        <v>405</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q60" s="20">
         <v>0</v>
@@ -7709,37 +8515,37 @@
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="H61" s="4">
         <v>2</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>313</v>
+        <v>405</v>
+      </c>
+      <c r="P61" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q61" s="20">
         <v>0</v>
@@ -7769,37 +8575,37 @@
         <v>2</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>313</v>
+        <v>405</v>
+      </c>
+      <c r="P62" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q62" s="20">
         <v>0</v>
@@ -7829,37 +8635,37 @@
         <v>3</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>313</v>
+        <v>405</v>
+      </c>
+      <c r="P63" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q63" s="20">
         <v>0</v>
@@ -7886,40 +8692,40 @@
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H64" s="4">
         <v>2</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>313</v>
+        <v>417</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q64" s="20">
         <v>0</v>
@@ -7946,40 +8752,40 @@
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H65" s="4">
         <v>1</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>313</v>
+        <v>417</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q65" s="20">
         <v>0</v>
@@ -8006,38 +8812,40 @@
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H66" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
       <c r="I66" s="5" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>313</v>
+        <v>417</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q66" s="20">
         <v>0</v>
@@ -8067,37 +8875,37 @@
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="H67" s="4">
         <v>3</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>313</v>
+        <v>417</v>
+      </c>
+      <c r="P67" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q67" s="20">
         <v>0</v>
@@ -8127,37 +8935,37 @@
         <v>2</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="H68" s="4">
         <v>3</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>313</v>
+        <v>417</v>
+      </c>
+      <c r="P68" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q68" s="20">
         <v>0</v>
@@ -8187,37 +8995,37 @@
         <v>3</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="H69" s="4">
         <v>3</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>313</v>
+        <v>417</v>
+      </c>
+      <c r="P69" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q69" s="20"/>
       <c r="R69" s="20"/>
@@ -8243,37 +9051,37 @@
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="H70" s="4">
         <v>7</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>313</v>
+        <v>446</v>
+      </c>
+      <c r="P70" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q70" s="20">
         <v>0</v>
@@ -8303,37 +9111,37 @@
         <v>2</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="H71" s="4">
         <v>4</v>
       </c>
       <c r="I71" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="J71" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="K71" s="5" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>313</v>
+        <v>446</v>
+      </c>
+      <c r="P71" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q71" s="20">
         <v>0</v>
@@ -8363,37 +9171,37 @@
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="H72" s="4">
         <v>10</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="P72" s="4" t="s">
-        <v>313</v>
+        <v>446</v>
+      </c>
+      <c r="P72" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q72" s="20">
         <v>0</v>
@@ -8423,37 +9231,37 @@
         <v>2</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="H73" s="4">
         <v>10</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>313</v>
+        <v>446</v>
+      </c>
+      <c r="P73" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q73" s="20">
         <v>0</v>
@@ -8477,43 +9285,43 @@
         <v>100</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H74" s="4">
         <v>5</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>313</v>
+        <v>469</v>
+      </c>
+      <c r="P74" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q74" s="20">
         <v>0</v>
@@ -8546,34 +9354,34 @@
         <v>101</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="H75" s="4">
         <v>2</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>313</v>
+        <v>484</v>
+      </c>
+      <c r="P75" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q75" s="20">
         <v>0</v>
@@ -8606,34 +9414,34 @@
         <v>101</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="H76" s="4">
         <v>1</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="P76" s="4" t="s">
-        <v>313</v>
+        <v>484</v>
+      </c>
+      <c r="P76" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q76" s="20">
         <v>0</v>
@@ -8663,37 +9471,37 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="H77" s="4">
         <v>1</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>313</v>
+        <v>484</v>
+      </c>
+      <c r="P77" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q77" s="20">
         <v>0</v>
@@ -8723,37 +9531,37 @@
         <v>2</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="H78" s="4">
         <v>2</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>313</v>
+        <v>484</v>
+      </c>
+      <c r="P78" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q78" s="20">
         <v>0</v>
@@ -8780,40 +9588,40 @@
         <v>1</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H79" s="4">
         <v>2</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>313</v>
+        <v>538</v>
+      </c>
+      <c r="P79" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q79" s="20">
         <v>0</v>
@@ -8840,40 +9648,40 @@
         <v>2</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H80" s="4">
         <v>1</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="P80" s="4" t="s">
-        <v>313</v>
+        <v>538</v>
+      </c>
+      <c r="P80" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q80" s="20">
         <v>0</v>
@@ -8903,37 +9711,37 @@
         <v>1</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="H81" s="4">
         <v>1</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="P81" s="4" t="s">
-        <v>313</v>
+        <v>538</v>
+      </c>
+      <c r="P81" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q81" s="20">
         <v>0</v>
@@ -8963,37 +9771,37 @@
         <v>2</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="H82" s="4">
         <v>1</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="P82" s="4" t="s">
-        <v>313</v>
+        <v>538</v>
+      </c>
+      <c r="P82" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q82" s="20">
         <v>0</v>
@@ -9020,40 +9828,40 @@
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H83" s="4">
         <v>1</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="P83" s="4" t="s">
-        <v>313</v>
+        <v>538</v>
+      </c>
+      <c r="P83" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q83" s="20">
         <v>0</v>
@@ -9083,37 +9891,37 @@
         <v>1</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="H84" s="4">
         <v>1</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="P84" s="4" t="s">
-        <v>313</v>
+        <v>593</v>
+      </c>
+      <c r="P84" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q84" s="20">
         <v>0</v>
@@ -9143,37 +9951,37 @@
         <v>2</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="H85" s="4">
         <v>2</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="P85" s="4" t="s">
-        <v>313</v>
+        <v>593</v>
+      </c>
+      <c r="P85" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q85" s="20">
         <v>0</v>
@@ -9200,38 +10008,38 @@
         <v>2</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4">
         <v>1</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N86" s="14" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="P86" s="4" t="s">
-        <v>313</v>
+        <v>593</v>
+      </c>
+      <c r="P86" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q86" s="20">
         <v>0</v>
@@ -9258,38 +10066,38 @@
         <v>3</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4">
         <v>2</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="P87" s="4" t="s">
-        <v>313</v>
+        <v>593</v>
+      </c>
+      <c r="P87" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q87" s="20">
         <v>0</v>
@@ -9310,46 +10118,46 @@
         <v>73</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="P88" s="4" t="s">
-        <v>312</v>
+        <v>489</v>
+      </c>
+      <c r="P88" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q88" s="20">
         <v>0</v>
@@ -9370,46 +10178,46 @@
         <v>74</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="P89" s="4" t="s">
-        <v>312</v>
+        <v>493</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="Q89" s="20">
         <v>0</v>
@@ -9436,40 +10244,40 @@
         <v>1</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H90" s="4">
         <v>5</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="P90" s="4" t="s">
-        <v>313</v>
+        <v>500</v>
+      </c>
+      <c r="P90" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q90" s="20">
         <v>0</v>
@@ -9496,40 +10304,40 @@
         <v>2</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H91" s="4">
         <v>2</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="P91" s="4" t="s">
-        <v>313</v>
+        <v>500</v>
+      </c>
+      <c r="P91" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q91" s="20">
         <v>0</v>
@@ -9556,40 +10364,40 @@
         <v>1</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H92" s="4">
         <v>7</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P92" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P92" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q92" s="20">
         <v>0</v>
@@ -9619,37 +10427,37 @@
         <v>1</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="H93" s="4">
         <v>4</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P93" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P93" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q93" s="20">
         <v>0</v>
@@ -9679,37 +10487,37 @@
         <v>2</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="H94" s="4">
         <v>3</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P94" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P94" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q94" s="20">
         <v>0</v>
@@ -9736,40 +10544,40 @@
         <v>3</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H95" s="4">
         <v>2</v>
       </c>
       <c r="I95" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="J95" s="5" t="s">
-        <v>543</v>
-      </c>
       <c r="K95" s="5" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="P95" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q95" s="20">
         <v>0</v>
@@ -9786,32 +10594,50 @@
       <c r="A96" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
+      <c r="D96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>615</v>
+      </c>
       <c r="K96" s="5" t="s">
-        <v>172</v>
+        <v>616</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N96" s="5"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="P96" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q96" s="20">
         <v>0</v>
@@ -9828,32 +10654,50 @@
       <c r="A97" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+      <c r="D97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H97" s="4">
+        <v>5</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="K97" s="5" t="s">
-        <v>173</v>
+        <v>621</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="N97" s="5"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="P97" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q97" s="20">
         <v>0</v>
@@ -9870,32 +10714,50 @@
       <c r="A98" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
+      <c r="D98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H98" s="4">
+        <v>2</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>625</v>
+      </c>
       <c r="K98" s="5" t="s">
-        <v>174</v>
+        <v>626</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="O98" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="P98" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q98" s="20">
         <v>0</v>
@@ -9910,34 +10772,52 @@
     </row>
     <row r="99" spans="1:22" ht="60" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>73</v>
+        <v>37</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>630</v>
+      </c>
       <c r="K99" s="5" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="N99" s="5"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="P99" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q99" s="20">
         <v>0</v>
@@ -9952,34 +10832,52 @@
     </row>
     <row r="100" spans="1:22" ht="60" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="K100" s="5" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N100" s="5"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="P100" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q100" s="20">
         <v>0</v>
@@ -9996,32 +10894,50 @@
       <c r="A101" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>75</v>
+      <c r="B101" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
+        <v>636</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>638</v>
+      </c>
       <c r="K101" s="5" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="N101" s="5"/>
-      <c r="O101" s="9"/>
-      <c r="P101" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P101" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q101" s="20">
         <v>0</v>
@@ -10038,32 +10954,50 @@
       <c r="A102" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>76</v>
+      <c r="B102" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H102" s="4">
+        <v>1</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>643</v>
+      </c>
       <c r="K102" s="5" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="N102" s="5"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="4" t="s">
-        <v>313</v>
+        <v>644</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="P102" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q102" s="20">
         <v>0</v>
@@ -10080,32 +11014,50 @@
       <c r="A103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>77</v>
+      <c r="B103" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="D103" s="4">
+        <v>2</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H103" s="4">
+        <v>1</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>648</v>
+      </c>
       <c r="K103" s="5" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="N103" s="5"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="4" t="s">
-        <v>313</v>
+        <v>649</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="P103" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q103" s="20">
         <v>0</v>
@@ -10122,32 +11074,50 @@
       <c r="A104" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>78</v>
+      <c r="B104" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="H104" s="4">
+        <v>1</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>180</v>
+        <v>655</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N104" s="5"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="P104" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q104" s="20">
         <v>0</v>
@@ -10164,32 +11134,50 @@
       <c r="A105" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>79</v>
+      <c r="B105" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="H105" s="4">
+        <v>3</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>659</v>
+      </c>
       <c r="K105" s="5" t="s">
-        <v>181</v>
+        <v>660</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>181</v>
+        <v>661</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="N105" s="5"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="O105" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="P105" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q105" s="20">
         <v>0</v>
@@ -10206,32 +11194,50 @@
       <c r="A106" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>80</v>
+      <c r="B106" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H106" s="4">
+        <v>1</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>664</v>
+      </c>
       <c r="K106" s="5" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>182</v>
+        <v>665</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N106" s="5"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="P106" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q106" s="20">
         <v>0</v>
@@ -10248,32 +11254,50 @@
       <c r="A107" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>81</v>
+      <c r="B107" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D107" s="4">
+        <v>3</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H107" s="4">
+        <v>1</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>668</v>
+      </c>
       <c r="K107" s="5" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>183</v>
+        <v>669</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N107" s="5"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="4" t="s">
-        <v>313</v>
+        <v>121</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="P107" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q107" s="20">
         <v>0</v>
@@ -10290,32 +11314,50 @@
       <c r="A108" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>82</v>
+      <c r="B108" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D108" s="4">
+        <v>4</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="H108" s="4">
+        <v>1</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>673</v>
+      </c>
       <c r="K108" s="5" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>184</v>
+        <v>674</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="N108" s="5"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="4" t="s">
-        <v>313</v>
+        <v>675</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="O108" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="P108" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q108" s="20">
         <v>0</v>
@@ -10330,52 +11372,52 @@
     </row>
     <row r="109" spans="1:22" ht="60" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>124</v>
+        <v>671</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>124</v>
+        <v>677</v>
       </c>
       <c r="H109" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>628</v>
+        <v>678</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>124</v>
+        <v>674</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N109" s="14" t="s">
-        <v>629</v>
+        <v>679</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P109" s="4" t="s">
-        <v>313</v>
+        <v>657</v>
+      </c>
+      <c r="P109" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q109" s="20">
         <v>0</v>
@@ -10390,52 +11432,52 @@
     </row>
     <row r="110" spans="1:22" ht="60" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="D110" s="4">
+        <v>5</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>124</v>
+        <v>681</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>124</v>
+        <v>682</v>
       </c>
       <c r="H110" s="4">
         <v>1</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>124</v>
+        <v>684</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N110" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P110" s="4" t="s">
-        <v>313</v>
+        <v>657</v>
+      </c>
+      <c r="P110" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="Q110" s="20">
         <v>0</v>
@@ -10447,6 +11489,846 @@
       <c r="T110" s="20"/>
       <c r="U110" s="20"/>
       <c r="V110" s="20"/>
+    </row>
+    <row r="111" spans="1:22" ht="60" customHeight="1">
+      <c r="A111" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="4">
+        <v>5</v>
+      </c>
+      <c r="E111" s="4">
+        <v>2</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="H111" s="4">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="O111" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="P111" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q111" s="20">
+        <v>0</v>
+      </c>
+      <c r="R111" s="20">
+        <v>0</v>
+      </c>
+      <c r="S111" s="20"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="20"/>
+    </row>
+    <row r="112" spans="1:22" ht="60" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="4">
+        <v>5</v>
+      </c>
+      <c r="E112" s="4">
+        <v>3</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="O112" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="P112" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q112" s="20">
+        <v>0</v>
+      </c>
+      <c r="R112" s="20">
+        <v>0</v>
+      </c>
+      <c r="S112" s="20"/>
+      <c r="T112" s="20"/>
+      <c r="U112" s="20"/>
+      <c r="V112" s="20"/>
+    </row>
+    <row r="113" spans="1:22" ht="60" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="4">
+        <v>5</v>
+      </c>
+      <c r="E113" s="4">
+        <v>4</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="H113" s="4">
+        <v>4</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="O113" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="P113" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q113" s="20">
+        <v>0</v>
+      </c>
+      <c r="R113" s="20">
+        <v>0</v>
+      </c>
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="20"/>
+    </row>
+    <row r="114" spans="1:22" ht="60" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H114" s="4">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P114" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q114" s="20">
+        <v>0</v>
+      </c>
+      <c r="R114" s="20">
+        <v>0</v>
+      </c>
+      <c r="S114" s="20"/>
+      <c r="T114" s="20"/>
+      <c r="U114" s="20"/>
+      <c r="V114" s="20"/>
+    </row>
+    <row r="115" spans="1:22" ht="60" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="O115" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="P115" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q115" s="20">
+        <v>0</v>
+      </c>
+      <c r="R115" s="20">
+        <v>0</v>
+      </c>
+      <c r="S115" s="20"/>
+      <c r="T115" s="20"/>
+      <c r="U115" s="20"/>
+      <c r="V115" s="20"/>
+    </row>
+    <row r="116" spans="1:22" ht="60" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="4">
+        <v>2</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116" s="4">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="O116" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="P116" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q116" s="20">
+        <v>0</v>
+      </c>
+      <c r="R116" s="20">
+        <v>0</v>
+      </c>
+      <c r="S116" s="20"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
+      <c r="V116" s="20"/>
+    </row>
+    <row r="117" spans="1:22" ht="60" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117" s="4">
+        <v>3</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="H117" s="4">
+        <v>1</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="P117" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q117" s="20">
+        <v>0</v>
+      </c>
+      <c r="R117" s="20">
+        <v>0</v>
+      </c>
+      <c r="S117" s="20"/>
+      <c r="T117" s="20"/>
+      <c r="U117" s="20"/>
+      <c r="V117" s="20"/>
+    </row>
+    <row r="118" spans="1:22" ht="60" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="4">
+        <v>3</v>
+      </c>
+      <c r="E118" s="4">
+        <v>2</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="H118" s="4">
+        <v>1</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="O118" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="P118" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q118" s="20">
+        <v>0</v>
+      </c>
+      <c r="R118" s="20">
+        <v>0</v>
+      </c>
+      <c r="S118" s="20"/>
+      <c r="T118" s="20"/>
+      <c r="U118" s="20"/>
+      <c r="V118" s="20"/>
+    </row>
+    <row r="119" spans="1:22" ht="60" customHeight="1">
+      <c r="A119" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="4">
+        <v>4</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H119" s="4">
+        <v>2</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="O119" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="P119" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q119" s="20">
+        <v>0</v>
+      </c>
+      <c r="R119" s="20">
+        <v>0</v>
+      </c>
+      <c r="S119" s="20"/>
+      <c r="T119" s="20"/>
+      <c r="U119" s="20"/>
+      <c r="V119" s="20"/>
+    </row>
+    <row r="120" spans="1:22" ht="60" customHeight="1">
+      <c r="A120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="H120" s="4">
+        <v>1</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="O120" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="P120" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q120" s="20">
+        <v>0</v>
+      </c>
+      <c r="R120" s="20">
+        <v>0</v>
+      </c>
+      <c r="S120" s="20"/>
+      <c r="T120" s="20"/>
+      <c r="U120" s="20"/>
+      <c r="V120" s="20"/>
+    </row>
+    <row r="121" spans="1:22" ht="60" customHeight="1">
+      <c r="A121" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4">
+        <v>2</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="H121" s="4">
+        <v>1</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="P121" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q121" s="20">
+        <v>0</v>
+      </c>
+      <c r="R121" s="20">
+        <v>0</v>
+      </c>
+      <c r="S121" s="20"/>
+      <c r="T121" s="20"/>
+      <c r="U121" s="20"/>
+      <c r="V121" s="20"/>
+    </row>
+    <row r="122" spans="1:22" ht="60" customHeight="1">
+      <c r="A122" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="4">
+        <v>2</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H122" s="4">
+        <v>1</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="O122" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="P122" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q122" s="20">
+        <v>0</v>
+      </c>
+      <c r="R122" s="20">
+        <v>0</v>
+      </c>
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="20"/>
+    </row>
+    <row r="123" spans="1:22" ht="60" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H123" s="4">
+        <v>9</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N123" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P123" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q123" s="20">
+        <v>0</v>
+      </c>
+      <c r="R123" s="20">
+        <v>0</v>
+      </c>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="20"/>
+    </row>
+    <row r="124" spans="1:22" ht="60" customHeight="1">
+      <c r="A124" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H124" s="4">
+        <v>1</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N124" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O124" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P124" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q124" s="20">
+        <v>0</v>
+      </c>
+      <c r="R124" s="20">
+        <v>0</v>
+      </c>
+      <c r="S124" s="20"/>
+      <c r="T124" s="20"/>
+      <c r="U124" s="20"/>
+      <c r="V124" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10466,18 +12348,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -10504,10 +12386,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10623,10 +12505,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11170,7 +13052,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="17" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B51" s="17">
         <v>9</v>
@@ -11181,7 +13063,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="17" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B52" s="17">
         <v>1</v>
